--- a/pcrCycleTime.xlsx
+++ b/pcrCycleTime.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6602A1BB-C6A8-4302-89BE-47A5AD975366}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626F3B0D-C3E9-4A14-B5E9-56F50A60757E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,37 +170,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,108 +496,110 @@
     <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="7"/>
+      <c r="D1" s="12"/>
+      <c r="E1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="7"/>
+      <c r="E2"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="5">
         <v>28</v>
       </c>
-      <c r="D4" s="10">
-        <v>26.23</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7"/>
+      <c r="D4" s="5">
+        <v>29.94</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="5">
         <v>14</v>
       </c>
-      <c r="D5" s="10">
-        <v>19.329999999999998</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="D5" s="5">
+        <v>23.33</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="5">
         <v>25</v>
       </c>
-      <c r="D6" s="10">
-        <v>17.28</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="5">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="5">
         <f>SUM(C4:C6)</f>
         <v>67</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <f>SUM(D4:D6)</f>
-        <v>62.84</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
+        <v>73.709999999999994</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -609,72 +608,84 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="5">
         <f>C7 + 20 + 60 + 60</f>
         <v>207</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="5">
         <f>D7 + 20 + 60 + 60</f>
-        <v>202.84</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="7"/>
+        <v>213.70999999999998</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>35</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="5">
         <f>$A$9*C8</f>
         <v>7245</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="5">
         <f>$A$9*D8</f>
-        <v>7099.4000000000005</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
+        <v>7479.8499999999995</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
         <f>_xlfn.FLOOR.MATH(C9/60)</f>
         <v>120</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <f>_xlfn.FLOOR.MATH(D9/60)</f>
-        <v>118</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5">
         <f>MOD(C9, 60)</f>
         <v>45</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <f>MOD(D9, 60)</f>
-        <v>19.400000000000546</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>39.849999999999454</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
